--- a/Employee_Reports28/Marlon Yuson Pamplona Q0555.xlsx
+++ b/Employee_Reports28/Marlon Yuson Pamplona Q0555.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,13 +28,10 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -45,6 +42,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="001F4E78"/>
         <bgColor rgb="001F4E78"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -66,15 +69,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -462,7 +468,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -565,11 +571,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -614,11 +620,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -663,11 +669,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -712,11 +718,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -761,11 +767,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -810,11 +816,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -859,11 +865,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -908,11 +914,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -957,11 +963,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1006,11 +1012,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1055,11 +1061,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1104,11 +1110,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1153,11 +1159,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1168,99 +1174,99 @@
       <c r="K15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>LOTO (SOPs)</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v/>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>02-Oct-2024</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
         <is>
           <t>02-Oct-2025</t>
         </is>
       </c>
-      <c r="H16" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>08-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr"/>
+      <c r="H16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>16-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>Equipment Operation Procedure
 (SOP-031) (SOPs)</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="4" t="n">
         <v/>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>13-Oct-2024</t>
         </is>
       </c>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="G17" s="4" t="inlineStr">
         <is>
           <t>13-Oct-2025</t>
         </is>
       </c>
-      <c r="H17" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>08-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr"/>
+      <c r="H17" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>16-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1288,7 +1294,7 @@
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="2" customWidth="1" min="6" max="6"/>
     <col width="2" customWidth="1" min="7" max="7"/>
   </cols>
@@ -1343,12 +1349,12 @@
           <t>28-Sep-2024</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>0.7848000000000001</v>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F3" s="3" t="n"/>
@@ -1368,12 +1374,12 @@
           <t>12-Oct-2024</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>0.6226</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F4" s="3" t="n"/>
@@ -1387,7 +1393,7 @@
           <t>TOTAL AVERAGE</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>0.7037</v>
       </c>
       <c r="E5" s="3" t="inlineStr"/>
